--- a/res/grilleGestionProjet.xlsx
+++ b/res/grilleGestionProjet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my-rog\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IUTtravail\cours\excel\Excel20192020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9864301D-B331-4F09-91B8-1C22352952F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B001B4C8-F581-40E1-BCD6-7CE8AC8A4F09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Données Personnelles" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A5:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -747,7 +747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A4:M17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -901,7 +901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1116,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1333,7 +1333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
